--- a/Doc/Linux.xlsx
+++ b/Doc/Linux.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\my-work-space\My-Documents\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FD4B2AB-F332-4AAD-9E82-7627EF6FCD34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A801B53-55AB-4AED-BE75-0E3826CB9E82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CentOs 8" sheetId="1" r:id="rId1"/>
+    <sheet name="CMD" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t xml:space="preserve"> /</t>
   </si>
@@ -61,7 +62,433 @@
  - sudo sed -i 's/^SELINUXTYPE=.*/#SELINUXTYPE=targeted/' /etc/selinux/config</t>
   </si>
   <si>
-    <t xml:space="preserve"> - VM: 
+    <t>Disable Firewall trong Linux Centos 8 (server), để cho phép các clients truy cập vào một số services của server này (do có một số bài học yêu cầu mở một số  cổng cho service trong server). Trong real-world không nên disable vì lý do bảo mật dữ liệu
+ 1, Stop firewalld service. 
+ 2, Disable (vô hiệu hóa) firewall để nó ko khởi động cùng Linux server.</t>
+  </si>
+  <si>
+    <t>1, sudo systemctl stop firewalld
+2, sudo systemctl disable firewalld</t>
+  </si>
+  <si>
+    <t>SETUP ENVIROMENT</t>
+  </si>
+  <si>
+    <t>SETUP HARDWARE</t>
+  </si>
+  <si>
+    <t>Pseudo File System</t>
+  </si>
+  <si>
+    <t>File System</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> - A file system in Linux is a structure that controls how data is stored, retrieved, and managed on the operating system
+ -  It provides an abstraction that allows users and applications to interact with a storage device without needing to understand the underlying physical implementation
+ - Một file system bình thường là một phương pháp sắp xếp các files và thư mục trên ổ cứng vật lý, và là một tập hợp logic của các files và thư mục nằm trên một phân vùng (parttition)
+ - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hierarchy of Directories</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:  Linux file systems follow a tree-like hierarchical structure. The first directory in the file system is called the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>root directory</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, designated by a forward slash </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(/)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. This directory contains files and other directories.
+ - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Type of Files</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: A Linux file can be categorized: 
+    + Ordinary Files (containing data)
+    + Directories (containing other files and directories)
+    + Special Files (used for device input and output)
+    + Links (pointers to other files)
+    + Sockets/FIFOs (used for inter-process communication)
+ - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>File Permissions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Files in Linux have permissions that dictate who can </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>read</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>write</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>execute</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> them. Permissions are given to the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>owner</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of the file, a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>group</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> that the owner belongs to, and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>all other users</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+ - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Types of File Systems</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Linux supports a number of file systems, such as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ext4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (fourth extended filesystem), </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>XFS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Btrfs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>more</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Each has its own structure and logic rules used to manage data.
+ - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mounting</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: When a storage device is attached to the system, the file system on that device must be mounted to a directory within the main Linux file system. This directory (or mount point) becomes the root of the device's file system and provides access to the files on the device.
+ - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Inodes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Each file or directory in a Linux file system is described by an Inode (Information Node). The Inode contains metadata about the file or directory like its size, timestamp (date of creation/last modification), owner, permissions, etc. It also contains pointers to the data blocks where the file's content is stored.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> - pseudo file system không tồn tại trên một ổ cứng vật lý
+   + pseudo có nghĩa là "fake" hoặc "not real"
+   + pseudo file system chỉ tồn tại trong RAM khi mà hđh đang chạy, sẽ bị xóa sạch trong RAM khi khởi động lại hđh
+- Có 2 thư mục pseudo file system chính ở trong Linux:
+   + /proc: Chứa thông tin về các tiền trình (processes) đang chạy trong hđh Linux. Processes được liệt kê theo PID, với dữ liệu và phần cứng và tiến trình cùng nằm trong cùng một thư mục
+   + /sys: Chứa thông tin về phần cứng(keyboard, mouse, CPU, GPU,...) và module hạt nhân(kernel) của hđh, VÀ không có thông tin các tiến trình (processes) được liệt kê ở đây</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> - VM: 
     + harddisk: 4GB
     + processor: 2
     + hard disk: 20GB, 1GB, 1GB
@@ -69,30 +496,254 @@
     + Network Adapter Bridged
  - Centos:
     + installation destination: 20G (hard disk)
-    + root-password: 1
-    + user: sang/1</t>
-  </si>
-  <si>
-    <t>Disable Firewall trong Linux Centos 8 (server), để cho phép các clients truy cập vào một số services của server này (do có một số bài học yêu cầu mở một số  cổng cho service trong server). Trong real-world không nên disable vì lý do bảo mật dữ liệu
- 1, Stop firewalld service. 
- 2, Disable (vô hiệu hóa) firewall để nó ko khởi động cùng Linux server.</t>
-  </si>
-  <si>
-    <t>1, sudo systemctl stop firewalld
-2, sudo systemctl disable firewalld</t>
-  </si>
-  <si>
-    <t>SETUP ENVIROMENT</t>
-  </si>
-  <si>
-    <t>SETUP HARDWARE</t>
+    + </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>root-password: 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    + </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>user: sang/1</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Kernel Module
+Linux Kernel </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Là khung lõi (core framework) của hệ điều hành
+- Linux Kernel cung cấp một cách cho phần còn lại của hệ thống để hoạt động vs phần cứng được kết nối với nó
+- Linux là nguyên khối(Monolithic Kernel)
+   + Kernel xử lý tất cả các tương tác quản lý bộ nhớ và thiết bị phần cứng
+   + Chức năng bổ sung có thể được tải và gỡ bỏ thông qua các kernel modules 
+   + Đảm bảo hđh sẽ ko cần phải khởi dộng lại (reboot) vào một kernel image khác để tăng thêm chức năng 
+- Nhiều bên thứ 3 (third-party) Linux Kernel Modules là trình điều khiển thiết bị (drivers)</t>
+  </si>
+  <si>
+    <t>Uname</t>
+  </si>
+  <si>
+    <t>Hiển thị thông tin về kernel đang chạy trong hệ điều hành</t>
+  </si>
+  <si>
+    <t>ismod</t>
+  </si>
+  <si>
+    <t>Hiển thị một danh sách của tất cả các kernel modules dã dc tải vào trong hđh</t>
+  </si>
+  <si>
+    <t>modinfor</t>
+  </si>
+  <si>
+    <t>Hiển thị thông tin về một kernel module cụ thể</t>
+  </si>
+  <si>
+    <t>modprobe</t>
+  </si>
+  <si>
+    <t>Là câu lệnh sử dụng để tại và gỡ bỏ kernel modules trong khi hđh đang chạy</t>
+  </si>
+  <si>
+    <t>/dev(pseudo file system)</t>
+  </si>
+  <si>
+    <t>/udev</t>
+  </si>
+  <si>
+    <t>/D-BUS</t>
+  </si>
+  <si>
+    <t>Trình quản lý thiết bị (device manager) cho Linux Kernel kết nối thông tin trong  hệ thống phần cứng với /dev</t>
+  </si>
+  <si>
+    <t>Chứa tất cả thông tin phần cứng được kết nối trong hệ điều hành</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - D-Bus gửi thông điêp dữ liệu giữa các ứng dụng, một đường dẫn thông tin về những gì đang diễn ra trong hệ thống
+ - /udev sử dụng D-Bus để thông báo cho người dùng và hệ thông biết khi có một thiết bị phần cứng dc gắn vào máy tính</t>
+  </si>
+  <si>
+    <t>lspci</t>
+  </si>
+  <si>
+    <t>Hiển thị thông tin các thiết bị PCI được gắn vào máy tính</t>
+  </si>
+  <si>
+    <t>lsusb</t>
+  </si>
+  <si>
+    <t>Hiển thị thông tin các thiết bị USB được gắn vào máy tính</t>
+  </si>
+  <si>
+    <t>lscpu</t>
+  </si>
+  <si>
+    <t>Hiển thị thông tin vi xử lý CPU (Central Processing Unit)</t>
+  </si>
+  <si>
+    <t>lsblk</t>
+  </si>
+  <si>
+    <t>Hiển thị thông tin về ổ cứng</t>
+  </si>
+  <si>
+    <t>dmesg</t>
+  </si>
+  <si>
+    <t>Xem bộ đệm vòng nhân(the kernel ring buffer) trong Linux</t>
+  </si>
+  <si>
+    <t>journalctl -k</t>
+  </si>
+  <si>
+    <t>Lệnh systemd xem bộ đệm vòng nhân trong systemd journal</t>
+  </si>
+  <si>
+    <t>Linux Boot System</t>
+  </si>
+  <si>
+    <t>Quá trình khởi động HĐH Linux</t>
+  </si>
+  <si>
+    <t>Init background</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Init là viết tắt của Initialization (tiến trình khởi động)
+ - System V init được sử dụng trong các hệ điều hành Unix (Unix System)
+ - Services được bắt đầu lần lượt theo kiểu nối tiếp</t>
+  </si>
+  <si>
+    <t>Run Level</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 6: Reboot</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 0 :  Halt-shutdown system</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> - 1: Single User mode (ko có cấu hình network, không khởi động các tiến trình, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>không cho phép</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> đăng nhập các user non-root)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> - 2: Multiple User mode (ko có cấu hình network, không khởi động các tiến trình, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cho phép</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> đăng nhập user non-root)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 4: Unused: Chưa được sử dụng</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> - 3: Multiple User mode (có cấu hình network, có khởi động các tiến trình, cho phép đăng nhập user non-root, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>chỉ thao tác trên giao diện command</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 5:  (default) Multiple User (có cấu hình network, có khởi động các tiến trình, cho phép đăng nhập user non-root, có giao diện đồ họa)</t>
+  </si>
+  <si>
+    <t>/Inittab</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;identifier&gt; : &lt;runlevel&gt; : &lt;action&gt; : &lt;process&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,6 +754,21 @@
     <font>
       <b/>
       <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -129,17 +795,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,91 +1105,308 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="72.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="139.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="4"/>
+    </row>
+    <row r="2" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="4"/>
+    </row>
+    <row r="13" spans="1:2" ht="345" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="9"/>
+      <c r="B22" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
+      <c r="B23" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="9"/>
+      <c r="B24" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="9"/>
+      <c r="B25" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="9"/>
+      <c r="B26" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="9"/>
+      <c r="B27" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A21:A27"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A98B4221-5852-4009-A90A-5AD7E98FF11B}">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="72.5703125" customWidth="1"/>
-    <col min="2" max="2" width="109.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="82" style="6" customWidth="1"/>
+    <col min="2" max="2" width="88.85546875" style="6" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="3"/>
-    </row>
-    <row r="2" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-    </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
+      <c r="A4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
+      <c r="A5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="3"/>
+      <c r="A7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A12:B12"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>